--- a/Requirements/design_requirments_and_planning.xlsx
+++ b/Requirements/design_requirments_and_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1bX7Umxa8BYXBsOCm6uOsXP-8Uql54hQw\Business Application Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA48EBF8-23B0-471D-9230-15802264C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA607FF-281E-411E-BAD1-E9B9327783DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2280" windowWidth="12800" windowHeight="9060" xr2:uid="{6E543973-CE72-40D5-A2A7-FB3BC0D64BB9}"/>
+    <workbookView xWindow="-50" yWindow="-50" windowWidth="25700" windowHeight="13780" xr2:uid="{6E543973-CE72-40D5-A2A7-FB3BC0D64BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Tasks</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Update specs to allow only one user type  (admin user) to simplify design and development</t>
+  </si>
+  <si>
+    <t>Create a Class diagram</t>
   </si>
 </sst>
 </file>
@@ -727,10 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7DB9F-7FCA-4E7B-9217-2A7BDBAFC454}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -896,6 +902,11 @@
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
@@ -1103,5 +1114,6 @@
     <mergeCell ref="B22:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>